--- a/RC/ig/all-profiles.xlsx
+++ b/RC/ig/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4946" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4946" uniqueCount="561">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://esante.gouv.fr/ci-sis/FHIR/StructureDefinition/TDE_AuditEvent</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/TDE_AuditEvent</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10</t>
+    <t>2025-12-11T14:42:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1221,13 +1221,10 @@
     <t>TDE-BundleResultatReponseRechercheTraces</t>
   </si>
   <si>
-    <t>http://esante.gouv.fr/ci-sis/fhir/StructureDefinition/TDE_BundleResultatReponseRechercheTraces</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/TDE_BundleResultatReponseRechercheTraces</t>
   </si>
   <si>
     <t>TDE_BundleResultatReponseRechercheTraces</t>
-  </si>
-  <si>
-    <t>2025-12-08T08:28:00+00:00</t>
   </si>
   <si>
     <t>Bundle</t>
@@ -1668,7 +1665,7 @@
     <t>Bundle.entry:AuditEvent.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">AuditEvent {https://esante.gouv.fr/ci-sis/FHIR/StructureDefinition/TDE_AuditEvent}
+    <t xml:space="preserve">AuditEvent {https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/TDE_AuditEvent}
 </t>
   </si>
   <si>
@@ -2132,7 +2129,7 @@
         <v>14</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>391</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
@@ -2198,7 +2195,7 @@
         <v>30</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="40">
@@ -2206,7 +2203,7 @@
         <v>32</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="41">
@@ -9344,10 +9341,10 @@
         <v>388</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9373,10 +9370,10 @@
         <v>77</v>
       </c>
       <c r="M68" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N68" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
@@ -9427,7 +9424,7 @@
         <v>74</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>75</v>
@@ -9439,7 +9436,7 @@
         <v>74</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="69">
@@ -9447,10 +9444,10 @@
         <v>388</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9552,10 +9549,10 @@
         <v>388</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9655,10 +9652,10 @@
         <v>388</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9760,10 +9757,10 @@
         <v>388</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9865,10 +9862,10 @@
         <v>388</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -9891,16 +9888,16 @@
         <v>84</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="N73" t="s" s="2">
+      <c r="O73" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="P73" s="2"/>
       <c r="Q73" t="s" s="2">
@@ -9950,7 +9947,7 @@
         <v>74</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>75</v>
@@ -9970,10 +9967,10 @@
         <v>388</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -9999,13 +9996,13 @@
         <v>103</v>
       </c>
       <c r="M74" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N74" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="N74" t="s" s="2">
+      <c r="O74" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" t="s" s="2">
@@ -10034,11 +10031,11 @@
         <v>156</v>
       </c>
       <c r="Z74" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AA74" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="AA74" t="s" s="2">
-        <v>411</v>
-      </c>
       <c r="AB74" t="s" s="2">
         <v>74</v>
       </c>
@@ -10055,7 +10052,7 @@
         <v>74</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>83</v>
@@ -10075,10 +10072,10 @@
         <v>388</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10104,13 +10101,13 @@
         <v>189</v>
       </c>
       <c r="M75" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N75" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="N75" t="s" s="2">
+      <c r="O75" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" t="s" s="2">
@@ -10160,7 +10157,7 @@
         <v>74</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>75</v>
@@ -10180,10 +10177,10 @@
         <v>388</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10206,16 +10203,16 @@
         <v>84</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="N76" t="s" s="2">
+      <c r="O76" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="P76" s="2"/>
       <c r="Q76" t="s" s="2">
@@ -10265,7 +10262,7 @@
         <v>74</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>75</v>
@@ -10274,7 +10271,7 @@
         <v>83</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>95</v>
@@ -10285,10 +10282,10 @@
         <v>388</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10314,13 +10311,13 @@
         <v>212</v>
       </c>
       <c r="M77" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="N77" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="N77" t="s" s="2">
+      <c r="O77" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
@@ -10370,7 +10367,7 @@
         <v>74</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>75</v>
@@ -10390,10 +10387,10 @@
         <v>388</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10493,10 +10490,10 @@
         <v>388</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10598,10 +10595,10 @@
         <v>388</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10705,10 +10702,10 @@
         <v>388</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10734,10 +10731,10 @@
         <v>165</v>
       </c>
       <c r="M81" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="N81" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
@@ -10788,7 +10785,7 @@
         <v>74</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>83</v>
@@ -10808,10 +10805,10 @@
         <v>388</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -10837,10 +10834,10 @@
         <v>97</v>
       </c>
       <c r="M82" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="N82" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" s="2"/>
@@ -10891,7 +10888,7 @@
         <v>74</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>83</v>
@@ -10911,10 +10908,10 @@
         <v>388</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -10940,10 +10937,10 @@
         <v>212</v>
       </c>
       <c r="M83" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="N83" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" s="2"/>
@@ -10982,7 +10979,7 @@
         <v>74</v>
       </c>
       <c r="AC83" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AD83" s="2"/>
       <c r="AE83" t="s" s="2">
@@ -10992,7 +10989,7 @@
         <v>173</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>75</v>
@@ -11004,7 +11001,7 @@
         <v>74</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="84">
@@ -11012,10 +11009,10 @@
         <v>388</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11115,10 +11112,10 @@
         <v>388</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11220,10 +11217,10 @@
         <v>388</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -11327,10 +11324,10 @@
         <v>388</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -11356,10 +11353,10 @@
         <v>77</v>
       </c>
       <c r="M87" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="N87" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" s="2"/>
@@ -11410,7 +11407,7 @@
         <v>74</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>75</v>
@@ -11430,10 +11427,10 @@
         <v>388</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11459,13 +11456,13 @@
         <v>97</v>
       </c>
       <c r="M88" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="N88" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="N88" t="s" s="2">
+      <c r="O88" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" t="s" s="2">
@@ -11515,7 +11512,7 @@
         <v>74</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>75</v>
@@ -11535,10 +11532,10 @@
         <v>388</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -11564,10 +11561,10 @@
         <v>120</v>
       </c>
       <c r="M89" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="N89" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
@@ -11618,7 +11615,7 @@
         <v>74</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>75</v>
@@ -11638,10 +11635,10 @@
         <v>388</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -11667,10 +11664,10 @@
         <v>212</v>
       </c>
       <c r="M90" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="N90" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
@@ -11721,7 +11718,7 @@
         <v>74</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>75</v>
@@ -11730,7 +11727,7 @@
         <v>83</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>95</v>
@@ -11741,10 +11738,10 @@
         <v>388</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -11844,10 +11841,10 @@
         <v>388</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -11949,10 +11946,10 @@
         <v>388</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -12056,10 +12053,10 @@
         <v>388</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -12085,13 +12082,13 @@
         <v>103</v>
       </c>
       <c r="M94" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="N94" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="N94" t="s" s="2">
+      <c r="O94" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="P94" s="2"/>
       <c r="Q94" t="s" s="2">
@@ -12120,11 +12117,11 @@
         <v>156</v>
       </c>
       <c r="Z94" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AA94" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="AA94" t="s" s="2">
-        <v>465</v>
-      </c>
       <c r="AB94" t="s" s="2">
         <v>74</v>
       </c>
@@ -12141,7 +12138,7 @@
         <v>74</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>75</v>
@@ -12161,10 +12158,10 @@
         <v>388</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -12187,16 +12184,16 @@
         <v>84</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="M95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="N95" t="s" s="2">
+      <c r="O95" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="P95" s="2"/>
       <c r="Q95" t="s" s="2">
@@ -12246,7 +12243,7 @@
         <v>74</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>75</v>
@@ -12266,10 +12263,10 @@
         <v>388</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -12295,10 +12292,10 @@
         <v>212</v>
       </c>
       <c r="M96" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="N96" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
@@ -12349,7 +12346,7 @@
         <v>74</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>75</v>
@@ -12358,7 +12355,7 @@
         <v>83</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>95</v>
@@ -12369,10 +12366,10 @@
         <v>388</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -12472,10 +12469,10 @@
         <v>388</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -12577,10 +12574,10 @@
         <v>388</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
@@ -12684,10 +12681,10 @@
         <v>388</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -12713,10 +12710,10 @@
         <v>103</v>
       </c>
       <c r="M100" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="N100" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
@@ -12746,11 +12743,11 @@
         <v>156</v>
       </c>
       <c r="Z100" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AA100" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="AA100" t="s" s="2">
-        <v>482</v>
-      </c>
       <c r="AB100" t="s" s="2">
         <v>74</v>
       </c>
@@ -12767,7 +12764,7 @@
         <v>74</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>83</v>
@@ -12787,10 +12784,10 @@
         <v>388</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -12816,13 +12813,13 @@
         <v>97</v>
       </c>
       <c r="M101" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="N101" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="N101" t="s" s="2">
+      <c r="O101" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="P101" s="2"/>
       <c r="Q101" t="s" s="2">
@@ -12872,7 +12869,7 @@
         <v>74</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>83</v>
@@ -12892,10 +12889,10 @@
         <v>388</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -12921,10 +12918,10 @@
         <v>165</v>
       </c>
       <c r="M102" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="N102" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" s="2"/>
@@ -12975,7 +12972,7 @@
         <v>74</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>75</v>
@@ -12995,10 +12992,10 @@
         <v>388</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -13024,10 +13021,10 @@
         <v>189</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" s="2"/>
@@ -13078,7 +13075,7 @@
         <v>74</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>75</v>
@@ -13098,10 +13095,10 @@
         <v>388</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
@@ -13127,10 +13124,10 @@
         <v>165</v>
       </c>
       <c r="M104" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="N104" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" s="2"/>
@@ -13181,7 +13178,7 @@
         <v>74</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>75</v>
@@ -13201,10 +13198,10 @@
         <v>388</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -13230,10 +13227,10 @@
         <v>165</v>
       </c>
       <c r="M105" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="N105" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" s="2"/>
@@ -13284,7 +13281,7 @@
         <v>74</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>75</v>
@@ -13304,10 +13301,10 @@
         <v>388</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
@@ -13333,10 +13330,10 @@
         <v>212</v>
       </c>
       <c r="M106" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="N106" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" s="2"/>
@@ -13387,7 +13384,7 @@
         <v>74</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>75</v>
@@ -13396,7 +13393,7 @@
         <v>83</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>95</v>
@@ -13407,10 +13404,10 @@
         <v>388</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
@@ -13510,10 +13507,10 @@
         <v>388</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
@@ -13615,10 +13612,10 @@
         <v>388</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
@@ -13722,10 +13719,10 @@
         <v>388</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -13751,10 +13748,10 @@
         <v>165</v>
       </c>
       <c r="M110" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="N110" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" s="2"/>
@@ -13805,7 +13802,7 @@
         <v>74</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>83</v>
@@ -13825,10 +13822,10 @@
         <v>388</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
@@ -13854,10 +13851,10 @@
         <v>97</v>
       </c>
       <c r="M111" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="N111" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" s="2"/>
@@ -13908,7 +13905,7 @@
         <v>74</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>75</v>
@@ -13928,10 +13925,10 @@
         <v>388</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
@@ -13957,13 +13954,13 @@
         <v>165</v>
       </c>
       <c r="M112" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="N112" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="N112" t="s" s="2">
+      <c r="O112" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="O112" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="P112" s="2"/>
       <c r="Q112" t="s" s="2">
@@ -14013,7 +14010,7 @@
         <v>74</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>75</v>
@@ -14033,10 +14030,10 @@
         <v>388</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
@@ -14062,13 +14059,13 @@
         <v>189</v>
       </c>
       <c r="M113" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="N113" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="N113" t="s" s="2">
+      <c r="O113" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="O113" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="P113" s="2"/>
       <c r="Q113" t="s" s="2">
@@ -14118,7 +14115,7 @@
         <v>74</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>75</v>
@@ -14138,10 +14135,10 @@
         <v>388</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
@@ -14167,13 +14164,13 @@
         <v>120</v>
       </c>
       <c r="M114" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="N114" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="N114" t="s" s="2">
+      <c r="O114" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="O114" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="P114" s="2"/>
       <c r="Q114" t="s" s="2">
@@ -14223,7 +14220,7 @@
         <v>74</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>75</v>
@@ -14243,10 +14240,10 @@
         <v>388</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D115" t="s" s="2">
         <v>31</v>
@@ -14274,10 +14271,10 @@
         <v>212</v>
       </c>
       <c r="M115" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="N115" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" s="2"/>
@@ -14328,7 +14325,7 @@
         <v>74</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>75</v>
@@ -14340,7 +14337,7 @@
         <v>74</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="116">
@@ -14348,10 +14345,10 @@
         <v>388</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
@@ -14451,10 +14448,10 @@
         <v>388</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -14556,10 +14553,10 @@
         <v>388</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -14663,10 +14660,10 @@
         <v>388</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
@@ -14692,10 +14689,10 @@
         <v>77</v>
       </c>
       <c r="M119" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="N119" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="O119" s="2"/>
       <c r="P119" s="2"/>
@@ -14746,7 +14743,7 @@
         <v>74</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>75</v>
@@ -14766,10 +14763,10 @@
         <v>388</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
@@ -14795,13 +14792,13 @@
         <v>97</v>
       </c>
       <c r="M120" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="N120" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="N120" t="s" s="2">
+      <c r="O120" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="O120" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="P120" s="2"/>
       <c r="Q120" t="s" s="2">
@@ -14851,7 +14848,7 @@
         <v>74</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>75</v>
@@ -14871,10 +14868,10 @@
         <v>388</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
@@ -14897,7 +14894,7 @@
         <v>74</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="M121" t="s" s="2">
         <v>78</v>
@@ -14956,7 +14953,7 @@
         <v>74</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>75</v>
@@ -14976,10 +14973,10 @@
         <v>388</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -15005,10 +15002,10 @@
         <v>212</v>
       </c>
       <c r="M122" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="N122" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="O122" s="2"/>
       <c r="P122" s="2"/>
@@ -15059,7 +15056,7 @@
         <v>74</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>75</v>
@@ -15068,7 +15065,7 @@
         <v>83</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>95</v>
@@ -15079,10 +15076,10 @@
         <v>388</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
@@ -15182,10 +15179,10 @@
         <v>388</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
@@ -15287,10 +15284,10 @@
         <v>388</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
@@ -15394,10 +15391,10 @@
         <v>388</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
@@ -15423,13 +15420,13 @@
         <v>103</v>
       </c>
       <c r="M126" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="N126" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="N126" t="s" s="2">
+      <c r="O126" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="O126" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="P126" s="2"/>
       <c r="Q126" t="s" s="2">
@@ -15458,11 +15455,11 @@
         <v>156</v>
       </c>
       <c r="Z126" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AA126" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="AA126" t="s" s="2">
-        <v>465</v>
-      </c>
       <c r="AB126" t="s" s="2">
         <v>74</v>
       </c>
@@ -15479,7 +15476,7 @@
         <v>74</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>75</v>
@@ -15499,10 +15496,10 @@
         <v>388</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -15525,16 +15522,16 @@
         <v>84</v>
       </c>
       <c r="L127" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M127" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="M127" t="s" s="2">
+      <c r="N127" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="N127" t="s" s="2">
+      <c r="O127" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="O127" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="P127" s="2"/>
       <c r="Q127" t="s" s="2">
@@ -15584,7 +15581,7 @@
         <v>74</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>75</v>
@@ -15604,10 +15601,10 @@
         <v>388</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
@@ -15633,10 +15630,10 @@
         <v>212</v>
       </c>
       <c r="M128" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="N128" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="O128" s="2"/>
       <c r="P128" s="2"/>
@@ -15687,7 +15684,7 @@
         <v>74</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>75</v>
@@ -15696,7 +15693,7 @@
         <v>83</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AK128" t="s" s="2">
         <v>95</v>
@@ -15707,10 +15704,10 @@
         <v>388</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -15810,10 +15807,10 @@
         <v>388</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
@@ -15915,10 +15912,10 @@
         <v>388</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
@@ -16022,10 +16019,10 @@
         <v>388</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
@@ -16051,10 +16048,10 @@
         <v>103</v>
       </c>
       <c r="M132" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="N132" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="O132" s="2"/>
       <c r="P132" s="2"/>
@@ -16084,11 +16081,11 @@
         <v>156</v>
       </c>
       <c r="Z132" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AA132" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="AA132" t="s" s="2">
-        <v>482</v>
-      </c>
       <c r="AB132" t="s" s="2">
         <v>74</v>
       </c>
@@ -16105,7 +16102,7 @@
         <v>74</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>83</v>
@@ -16125,10 +16122,10 @@
         <v>388</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
@@ -16154,13 +16151,13 @@
         <v>97</v>
       </c>
       <c r="M133" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="N133" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="N133" t="s" s="2">
+      <c r="O133" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="O133" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="P133" s="2"/>
       <c r="Q133" t="s" s="2">
@@ -16210,7 +16207,7 @@
         <v>74</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>83</v>
@@ -16230,10 +16227,10 @@
         <v>388</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
@@ -16259,10 +16256,10 @@
         <v>165</v>
       </c>
       <c r="M134" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="N134" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="O134" s="2"/>
       <c r="P134" s="2"/>
@@ -16313,7 +16310,7 @@
         <v>74</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>75</v>
@@ -16333,10 +16330,10 @@
         <v>388</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
@@ -16362,10 +16359,10 @@
         <v>189</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="O135" s="2"/>
       <c r="P135" s="2"/>
@@ -16416,7 +16413,7 @@
         <v>74</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>75</v>
@@ -16436,10 +16433,10 @@
         <v>388</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
@@ -16465,10 +16462,10 @@
         <v>165</v>
       </c>
       <c r="M136" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="N136" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="O136" s="2"/>
       <c r="P136" s="2"/>
@@ -16519,7 +16516,7 @@
         <v>74</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>75</v>
@@ -16539,10 +16536,10 @@
         <v>388</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
@@ -16568,10 +16565,10 @@
         <v>165</v>
       </c>
       <c r="M137" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="N137" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="N137" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="O137" s="2"/>
       <c r="P137" s="2"/>
@@ -16622,7 +16619,7 @@
         <v>74</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>75</v>
@@ -16642,10 +16639,10 @@
         <v>388</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -16671,10 +16668,10 @@
         <v>212</v>
       </c>
       <c r="M138" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="N138" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="N138" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="O138" s="2"/>
       <c r="P138" s="2"/>
@@ -16725,7 +16722,7 @@
         <v>74</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>75</v>
@@ -16734,7 +16731,7 @@
         <v>83</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AK138" t="s" s="2">
         <v>95</v>
@@ -16745,10 +16742,10 @@
         <v>388</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -16848,10 +16845,10 @@
         <v>388</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -16953,10 +16950,10 @@
         <v>388</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
@@ -17060,10 +17057,10 @@
         <v>388</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
@@ -17089,10 +17086,10 @@
         <v>165</v>
       </c>
       <c r="M142" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="N142" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="N142" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="O142" s="2"/>
       <c r="P142" s="2"/>
@@ -17143,7 +17140,7 @@
         <v>74</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>83</v>
@@ -17163,10 +17160,10 @@
         <v>388</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
@@ -17192,10 +17189,10 @@
         <v>97</v>
       </c>
       <c r="M143" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="N143" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="N143" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="O143" s="2"/>
       <c r="P143" s="2"/>
@@ -17246,7 +17243,7 @@
         <v>74</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>75</v>
@@ -17266,10 +17263,10 @@
         <v>388</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
@@ -17295,13 +17292,13 @@
         <v>165</v>
       </c>
       <c r="M144" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="N144" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="N144" t="s" s="2">
+      <c r="O144" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="O144" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="P144" s="2"/>
       <c r="Q144" t="s" s="2">
@@ -17351,7 +17348,7 @@
         <v>74</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>75</v>
@@ -17371,10 +17368,10 @@
         <v>388</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
@@ -17400,13 +17397,13 @@
         <v>189</v>
       </c>
       <c r="M145" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="N145" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="N145" t="s" s="2">
+      <c r="O145" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="O145" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="P145" s="2"/>
       <c r="Q145" t="s" s="2">
@@ -17456,7 +17453,7 @@
         <v>74</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>75</v>
@@ -17476,10 +17473,10 @@
         <v>388</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
@@ -17505,13 +17502,13 @@
         <v>120</v>
       </c>
       <c r="M146" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="N146" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="N146" t="s" s="2">
+      <c r="O146" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="O146" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="P146" s="2"/>
       <c r="Q146" t="s" s="2">
@@ -17561,7 +17558,7 @@
         <v>74</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>75</v>
@@ -17581,10 +17578,10 @@
         <v>388</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
@@ -17607,19 +17604,19 @@
         <v>84</v>
       </c>
       <c r="L147" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="M147" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="M147" t="s" s="2">
+      <c r="N147" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="N147" t="s" s="2">
+      <c r="O147" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="O147" t="s" s="2">
+      <c r="P147" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="P147" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="Q147" t="s" s="2">
         <v>74</v>
@@ -17668,7 +17665,7 @@
         <v>74</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>75</v>
